--- a/matlab/statistics/MeanLDiffthdRanalysis.xlsx
+++ b/matlab/statistics/MeanLDiffthdRanalysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A7DC2-48A9-4BAF-979E-3AB9EED48E90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B833A-C5D5-4F68-A272-526B08942179}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>Observation</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>oldThreshold</t>
+  </si>
+  <si>
+    <t>no object</t>
   </si>
 </sst>
 </file>
@@ -117,19 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,20 +417,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,13 +445,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -464,8 +476,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J2">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -484,8 +502,14 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -504,8 +528,14 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="J4">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -524,8 +554,14 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="J5">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -544,9 +580,15 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="J6">
+        <v>48.1</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -565,8 +607,14 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="J7">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -585,8 +633,14 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="J8">
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -605,8 +659,14 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="J9">
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -625,8 +685,14 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="J10">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -645,8 +711,14 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="J11">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -665,8 +737,14 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="J12">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -685,8 +763,14 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="J13">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -704,6 +788,10 @@
       </c>
       <c r="F14" t="s">
         <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <f>G2-J2</f>
+        <v>3.4999999999999982</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -711,12 +799,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -734,6 +818,10 @@
       </c>
       <c r="F15" t="s">
         <v>11</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:G25" si="0">G3-J3</f>
+        <v>4.2000000000000011</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -744,9 +832,8 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -765,16 +852,12 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -792,6 +875,10 @@
       </c>
       <c r="F17" t="s">
         <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1000000000000014</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -799,10 +886,8 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -820,6 +905,10 @@
       </c>
       <c r="F18" t="s">
         <v>11</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999957</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -827,10 +916,8 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -849,16 +936,12 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -877,16 +960,12 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -905,8 +984,10 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999972</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -914,7 +995,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -933,8 +1014,12 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -953,8 +1038,12 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -973,8 +1062,12 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -992,6 +1085,10 @@
       </c>
       <c r="F25" t="s">
         <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
